--- a/DB/Planillas para importación Masiva/import_Servicios.xlsx
+++ b/DB/Planillas para importación Masiva/import_Servicios.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>IdCliente</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>1/4/2022</t>
   </si>
 </sst>
 </file>
@@ -725,10 +728,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1054,164 +1057,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44652</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>0</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>0</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <f>SUM(O2,P2,Q2)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="1">
-        <v>44652</v>
-      </c>
-      <c r="T2" s="2">
+      <c r="S2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="1">
         <f>Q2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>1</v>
       </c>
     </row>
